--- a/medicine/Psychotrope/Rue_de_la_Soif/Rue_de_la_Soif.xlsx
+++ b/medicine/Psychotrope/Rue_de_la_Soif/Rue_de_la_Soif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'expression rue de la Soif est parfois employée pour désigner au sein d'une ville une rue caractérisée par un nombre important de bars et de lieux délivrant des boissons alcoolisées. Il ne s'agit donc pas d'un véritable odonyme mais d'une dénomination comprise par un groupe de personnes comme définition d'un lieu de rendez-vous par exemple. La rue Saint-Michel de Rennes est généralement considéré comme la première rue de la Soif de France en débits de boisson[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'expression rue de la Soif est parfois employée pour désigner au sein d'une ville une rue caractérisée par un nombre important de bars et de lieux délivrant des boissons alcoolisées. Il ne s'agit donc pas d'un véritable odonyme mais d'une dénomination comprise par un groupe de personnes comme définition d'un lieu de rendez-vous par exemple. La rue Saint-Michel de Rennes est généralement considéré comme la première rue de la Soif de France en débits de boisson,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs grandes villes françaises possèdent leur rue de la Soif. On peut citer (par ordre alphabétique) : 
 Aix-en-Provence avec la rue de la Verrerie ;
@@ -525,15 +539,15 @@
 Dijon avec la rue Jean-Jacques-Rousseau et la rue Berbisey ;
 Dinan avec la rue de la Cordonnerie ;
 Dunkerque avec la rue Amiral Ronarc'h (où une fête de la rue de la Soif se tient tous les ans début juin) ;
-Fontainebleau avec la rue du Coq-Gris[3] ;
+Fontainebleau avec la rue du Coq-Gris ;
 La Rochelle avec la cour du Temple ;
 Le Mans avec la place de la Sirène ;
 Lille avec les rues Solférino et Masséna ;
 Limoges avec la rue Charles-Michels ;
 Lyon avec la place des Terreaux, la rue Mercière et la rue Sainte Catherine,
-Metz avec la rue Sainte-Marie[4] ;
+Metz avec la rue Sainte-Marie ;
 Montpellier avec la rue de Verdun ;
-Mont-de-Marsan avec la rue du 4 septembre durant les fêtes de la Madeleine[5] (la rue du Maréchal-Bosquet porte le nom de rue jaune et est considérée comme l'autre rue de la soif) ;
+Mont-de-Marsan avec la rue du 4 septembre durant les fêtes de la Madeleine (la rue du Maréchal-Bosquet porte le nom de rue jaune et est considérée comme l'autre rue de la soif) ;
 Orléans avec la rue Bourgogne ;
 Paris avec les rues des Canettes, Guisarde et Princesse à Saint-Germain-des-Prés, la rue Mouffetard dans le Quartier Latin, la rue Oberkampf dans le quartier de La Folie-Méricourt ou encore la rue de Lappe à Bastille ;
 Rennes avec la rue Saint-Michel ;
